--- a/medicine/Enfance/Les_Compagnons_de_la_Croix-Rousse/Les_Compagnons_de_la_Croix-Rousse.xlsx
+++ b/medicine/Enfance/Les_Compagnons_de_la_Croix-Rousse/Les_Compagnons_de_la_Croix-Rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Compagnons de la Croix-Rousse est le premier roman de la série Les Six Compagnons créée par Paul-Jacques Bonzon, sur 49 titres publiés.
 Il est édité pour la première fois en 1961 chez Hachette dans la collection Bibliothèque verte.
-Il est renommé Les Six Compagnons de la Croix-Rousse en 1981[1] par analogie avec le reste de la collection.
+Il est renommé Les Six Compagnons de la Croix-Rousse en 1981 par analogie avec le reste de la collection.
 L'action se déroule à Reillanette (limite de la Drôme et du Vaucluse, près de Roquemaure) et Lyon. 
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tidou (le narrateur)
 Corget, nouveau camarade de classe de Tidou et chef de la bande du Gros-Caillou
@@ -526,7 +540,7 @@
 Coissieux, un grand rouquin membre de la bande du Gros-Caillou qui disparaît des aventures par la suite
 Mady, petite fille malade qui sympathise avec Tidou et rejoint la bande du Gros-Caillou
 Kafi, chien-loup de Tidou
-Avant l'arrivée de Tidou, la bande compte au moins neuf garçons, voire plus[2].
+Avant l'arrivée de Tidou, la bande compte au moins neuf garçons, voire plus.
 </t>
         </is>
       </c>
@@ -555,7 +569,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tidou envisage avec effroi le déménagement imminent de sa famille pour Lyon, dans une ancienne maison du quartier de la Croix-Rousse. En effet, ses parents estiment qu'il lui faudra abandonner Kafi, son chien-loup habitué à la campagne du village de Reillanette. Tidou promet alors à son chien de le retrouver si jamais on les sépare.
@@ -592,12 +608,14 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1961 : Les Compagnons de la Croix-Rousse, édition cartonnée (texte original), illustrations d'Albert Chazelle, collection Bibliothèque verte no 194, Hachette.
 1961 : Les Compagnons de la Croix-Rousse, édition cartonnée (texte original), illustrations d'Albert Chazelle, coll. Bibliothèque de la jeunesse, Hachette.
 1966 : Les Compagnons de la Croix-Rousse, édition cartonnée (texte original), ill. d'Albert Chazelle, Bibliothèque verte, Hachette.
-1968 : L'Éventail de Séville, Les Compagnons de la Croix-rousse, Les Orphelins de Simitra, édition cartonnée (texte original), ill. François Batet et Albert Chazelle, coll. Les Grands Livres Hachette « 3 en un », In-4° (26 cm)[3].
+1968 : L'Éventail de Séville, Les Compagnons de la Croix-rousse, Les Orphelins de Simitra, édition cartonnée (texte original), ill. François Batet et Albert Chazelle, coll. Les Grands Livres Hachette « 3 en un », In-4° (26 cm).
 1969 : Les Compagnons de la Croix-Rousse, édition cartonnée (texte original), ill. Albert Chazelle, coll. Idéal-Bibliothèque, Hachette (réédition en 1976, ill. Robert Bressy).
 1976 : Les Compagnons de la Croix-Rousse, édition cartonnée (texte original), ill. Robert Bressy, coll. Idéal-Bibliothèque, Hachette.
 1976 : Les Compagnons de la Croix-Rousse, édition cartonnée (texte original), ill. Robert Bressy, Bibliothèque verte, Hachette.
@@ -635,9 +653,11 @@
           <t>Adaptation en série télévisée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les Compagnons de la Croix-Rousse, premier épisode de la série « Les Compagnons de l'aventure », diffusion en octobre 1989[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Compagnons de la Croix-Rousse, premier épisode de la série « Les Compagnons de l'aventure », diffusion en octobre 1989.</t>
         </is>
       </c>
     </row>
